--- a/Products.xlsx
+++ b/Products.xlsx
@@ -89,7 +89,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,10 +104,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB1CEFC"/>
+        <fgColor rgb="FF1976D2"/>
       </patternFill>
     </fill>
-    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,7 +406,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="6" min="2" width="20"/>
+    <col customWidth="true" max="6" min="2" width="25"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true">

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -34,49 +34,16 @@
     <t>Update at</t>
   </si>
   <si>
-    <t>TV 50</t>
-  </si>
-  <si>
-    <t>APPLE</t>
-  </si>
-  <si>
-    <t>R$ 888.80</t>
-  </si>
-  <si>
-    <t>2022-12-12 16:29:51</t>
-  </si>
-  <si>
-    <t>R$ 4.00</t>
-  </si>
-  <si>
-    <t>2022-12-12 16:31:43</t>
-  </si>
-  <si>
-    <t>R$ 55.00</t>
-  </si>
-  <si>
-    <t>2022-12-12 16:33:13</t>
-  </si>
-  <si>
-    <t>2022-12-12 16:35:20</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>2022-12-12 16:42:28</t>
-  </si>
-  <si>
-    <t>ada</t>
-  </si>
-  <si>
-    <t>R$ 7.00</t>
-  </si>
-  <si>
-    <t>2022-12-12 17:22:06</t>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Acer Nitro</t>
+  </si>
+  <si>
+    <t>R$ 4502.50</t>
+  </si>
+  <si>
+    <t>2022-12-13 23:22:09</t>
   </si>
   <si>
     <t>Ventilador</t>
@@ -88,7 +55,13 @@
     <t>R$ 200.00</t>
   </si>
   <si>
-    <t>2022-12-13 14:54:25</t>
+    <t>Faca</t>
+  </si>
+  <si>
+    <t>Tramontina</t>
+  </si>
+  <si>
+    <t>R$ 55.99</t>
   </si>
 </sst>
 </file>
@@ -461,7 +434,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -481,102 +454,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -43,7 +43,7 @@
     <t>R$ 4502.50</t>
   </si>
   <si>
-    <t>2022-12-13 23:22:09</t>
+    <t>2022-12-14 09:23:21</t>
   </si>
   <si>
     <t>Ventilador</t>
@@ -97,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF40E0D0"/>
+        <fgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -434,7 +434,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
